--- a/请购单字段分析表.xlsx
+++ b/请购单字段分析表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mt\6 project\6 用友U9\报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" tabRatio="524" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" tabRatio="524"/>
   </bookViews>
   <sheets>
     <sheet name="请购前端页面显示的表头" sheetId="3" r:id="rId1"/>
@@ -1890,8 +1895,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2555,24 +2560,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2588,19 +2593,27 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3105,7 +3118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3147,7 +3160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3179,9 +3192,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3213,6 +3227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3388,14 +3403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
@@ -3404,7 +3419,7 @@
     <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -3420,7 +3435,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -3430,7 +3445,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3455,7 +3470,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3466,7 +3481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -3480,7 +3495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3502,7 +3517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3513,7 +3528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3527,17 +3542,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3545,7 +3560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3556,7 +3571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -3571,7 +3586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -3580,15 +3595,15 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3613,7 +3628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3627,12 +3642,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3648,7 +3663,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3659,7 +3674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3667,7 +3682,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3698,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3691,7 +3706,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3699,7 +3714,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3722,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3723,7 +3738,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3746,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -3739,7 +3754,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3747,7 +3762,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3772,7 +3787,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3783,7 +3798,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3820,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3813,7 +3828,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3821,7 +3836,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3852,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3851,7 +3866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>471</v>
       </c>
@@ -3865,7 +3880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3894,14 +3909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3909,20 +3924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>1001812070405900</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3938,7 +3953,7 @@
         <v>43441.748819444445</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3946,7 +3961,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3954,7 +3969,7 @@
         <v>43441.749988425923</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -3970,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>474</v>
       </c>
@@ -3978,7 +3993,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3986,7 +4001,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>475</v>
       </c>
@@ -3994,7 +4009,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>476</v>
       </c>
@@ -4002,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -4010,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -4018,7 +4033,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -4026,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -4034,19 +4049,19 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>211</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>212</v>
       </c>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -4070,13 +4085,13 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>178</v>
       </c>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -4084,7 +4099,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -4092,13 +4107,13 @@
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>181</v>
       </c>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -4106,319 +4121,319 @@
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>480</v>
       </c>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>481</v>
       </c>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>482</v>
       </c>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>483</v>
       </c>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>484</v>
       </c>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>485</v>
       </c>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>486</v>
       </c>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>487</v>
       </c>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>488</v>
       </c>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>489</v>
       </c>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>490</v>
       </c>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>491</v>
       </c>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>492</v>
       </c>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>493</v>
       </c>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>494</v>
       </c>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>495</v>
       </c>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>496</v>
       </c>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>497</v>
       </c>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>498</v>
       </c>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>499</v>
       </c>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>500</v>
       </c>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>501</v>
       </c>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>502</v>
       </c>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>503</v>
       </c>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>504</v>
       </c>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>505</v>
       </c>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>506</v>
       </c>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>507</v>
       </c>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>508</v>
       </c>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>509</v>
       </c>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>510</v>
       </c>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>511</v>
       </c>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>512</v>
       </c>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>513</v>
       </c>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>514</v>
       </c>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>515</v>
       </c>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>516</v>
       </c>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>517</v>
       </c>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>518</v>
       </c>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>519</v>
       </c>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>520</v>
       </c>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>521</v>
       </c>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>522</v>
       </c>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>523</v>
       </c>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>524</v>
       </c>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>525</v>
       </c>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>526</v>
       </c>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>527</v>
       </c>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>528</v>
       </c>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>529</v>
       </c>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>530</v>
       </c>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>531</v>
       </c>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>532</v>
       </c>
@@ -4426,175 +4441,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>533</v>
       </c>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>534</v>
       </c>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>535</v>
       </c>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>536</v>
       </c>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>537</v>
       </c>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>538</v>
       </c>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>539</v>
       </c>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>540</v>
       </c>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>541</v>
       </c>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>542</v>
       </c>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>543</v>
       </c>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>544</v>
       </c>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>545</v>
       </c>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>546</v>
       </c>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>547</v>
       </c>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>548</v>
       </c>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>549</v>
       </c>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>550</v>
       </c>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>551</v>
       </c>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>552</v>
       </c>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>553</v>
       </c>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>554</v>
       </c>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>555</v>
       </c>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>556</v>
       </c>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>557</v>
       </c>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>558</v>
       </c>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>559</v>
       </c>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>560</v>
       </c>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>561</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>562</v>
       </c>
@@ -4610,7 +4625,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -4618,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>563</v>
       </c>
@@ -4626,7 +4641,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>564</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>1001708070112110</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -4642,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>565</v>
       </c>
@@ -4658,7 +4673,7 @@
         <v>1001708040000030</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>101</v>
       </c>
@@ -4666,7 +4681,7 @@
         <v>1001708040000570</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -4682,7 +4697,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>566</v>
       </c>
@@ -4690,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>567</v>
       </c>
@@ -4698,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>568</v>
       </c>
@@ -4706,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>569</v>
       </c>
@@ -4714,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>570</v>
       </c>
@@ -4722,7 +4737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>571</v>
       </c>
@@ -4730,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>572</v>
       </c>
@@ -4738,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>214</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -4754,7 +4769,7 @@
         <v>43441.749988425923</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -4762,7 +4777,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>574</v>
       </c>
@@ -4770,7 +4785,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -4778,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -4786,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>575</v>
       </c>
@@ -4794,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>576</v>
       </c>
@@ -4802,7 +4817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>577</v>
       </c>
@@ -4810,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>578</v>
       </c>
@@ -4818,7 +4833,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>579</v>
       </c>
@@ -4826,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>580</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>581</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>582</v>
       </c>
@@ -4850,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>583</v>
       </c>
@@ -4858,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>584</v>
       </c>
@@ -4866,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>585</v>
       </c>
@@ -4874,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>586</v>
       </c>
@@ -4882,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>384</v>
       </c>
@@ -4890,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>385</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>587</v>
       </c>
@@ -4906,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>588</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -4922,19 +4937,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>590</v>
       </c>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>591</v>
       </c>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>592</v>
       </c>
@@ -4949,20 +4964,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B379"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -4970,7 +4985,7 @@
         <v>1001812070405900</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4978,7 +4993,7 @@
         <v>43441.748819444445</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -4986,7 +5001,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -4994,7 +5009,7 @@
         <v>43441.749988425923</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5002,7 +5017,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5010,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5018,7 +5033,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -5026,7 +5041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -5034,12 +5049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -5055,7 +5070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -5063,17 +5078,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -5081,7 +5096,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -5097,12 +5112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5110,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -5118,12 +5133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -5131,12 +5146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -5144,7 +5159,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -5152,7 +5167,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -5160,7 +5175,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -5168,7 +5183,7 @@
         <v>1001708040000030</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>1001708040000570</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -5192,7 +5207,7 @@
         <v>1001708090328390</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -5200,7 +5215,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -5208,7 +5223,7 @@
         <v>314020006</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -5224,7 +5239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -5232,7 +5247,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -5240,7 +5255,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -5248,12 +5263,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -5261,7 +5276,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -5277,7 +5292,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -5285,7 +5300,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -5301,7 +5316,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -5309,7 +5324,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -5317,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -5325,17 +5340,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -5343,7 +5358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -5351,7 +5366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -5359,7 +5374,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -5375,12 +5390,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -5396,7 +5411,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -5404,7 +5419,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -5412,7 +5427,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -5420,7 +5435,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -5428,7 +5443,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -5436,7 +5451,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -5444,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -5452,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -5460,7 +5475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -5468,7 +5483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -5476,7 +5491,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -5484,7 +5499,7 @@
         <v>43529.708333333336</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -5492,7 +5507,7 @@
         <v>43445.708333333336</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>43441.708333333336</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5508,7 +5523,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5516,7 +5531,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -5524,17 +5539,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -5550,7 +5565,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>150</v>
       </c>
@@ -5558,7 +5573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -5574,7 +5589,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>153</v>
       </c>
@@ -5582,7 +5597,7 @@
         <v>1001812070405900</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -5590,12 +5605,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -5603,7 +5618,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -5611,7 +5626,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -5619,12 +5634,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -5632,7 +5647,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -5640,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5648,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>162</v>
       </c>
@@ -5656,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -5672,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -5680,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -5688,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -5696,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>168</v>
       </c>
@@ -5704,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -5712,12 +5727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>173</v>
       </c>
@@ -5741,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>174</v>
       </c>
@@ -5749,7 +5764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -5757,7 +5772,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>176</v>
       </c>
@@ -5765,7 +5780,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>177</v>
       </c>
@@ -5773,12 +5788,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>179</v>
       </c>
@@ -5786,7 +5801,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>180</v>
       </c>
@@ -5794,12 +5809,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>66</v>
       </c>
@@ -5815,7 +5830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -5823,7 +5838,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -5831,7 +5846,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>185</v>
       </c>
@@ -5839,7 +5854,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -5855,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -5863,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>190</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -5887,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -5895,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -5903,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>194</v>
       </c>
@@ -5911,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>195</v>
       </c>
@@ -5919,7 +5934,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -5927,7 +5942,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>197</v>
       </c>
@@ -5935,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>198</v>
       </c>
@@ -5943,7 +5958,7 @@
         <v>1001708030115590</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>199</v>
       </c>
@@ -5951,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -5959,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -5967,7 +5982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -5975,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -5983,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -5991,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -5999,7 +6014,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>206</v>
       </c>
@@ -6007,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>207</v>
       </c>
@@ -6015,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>208</v>
       </c>
@@ -6023,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -6031,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>210</v>
       </c>
@@ -6039,17 +6054,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -6057,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -6065,7 +6080,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -6073,7 +6088,7 @@
         <v>43441.749988425923</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>216</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>217</v>
       </c>
@@ -6089,7 +6104,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>218</v>
       </c>
@@ -6097,7 +6112,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>219</v>
       </c>
@@ -6105,7 +6120,7 @@
         <v>1001708040000030</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>220</v>
       </c>
@@ -6113,7 +6128,7 @@
         <v>1001708040000570</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>221</v>
       </c>
@@ -6121,7 +6136,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>222</v>
       </c>
@@ -6129,412 +6144,412 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>304</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>305</v>
       </c>
@@ -6550,7 +6565,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>306</v>
       </c>
@@ -6558,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>307</v>
       </c>
@@ -6566,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>308</v>
       </c>
@@ -6574,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>309</v>
       </c>
@@ -6582,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>310</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>311</v>
       </c>
@@ -6598,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>312</v>
       </c>
@@ -6606,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>55</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>313</v>
       </c>
@@ -6622,7 +6637,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>314</v>
       </c>
@@ -6630,7 +6645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>315</v>
       </c>
@@ -6638,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>316</v>
       </c>
@@ -6646,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>317</v>
       </c>
@@ -6654,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>318</v>
       </c>
@@ -6662,7 +6677,7 @@
         <v>1001708020135660</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>319</v>
       </c>
@@ -6670,7 +6685,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>320</v>
       </c>
@@ -6678,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>321</v>
       </c>
@@ -6686,7 +6701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>322</v>
       </c>
@@ -6694,7 +6709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>323</v>
       </c>
@@ -6702,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>324</v>
       </c>
@@ -6710,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>325</v>
       </c>
@@ -6718,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>326</v>
       </c>
@@ -6726,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>327</v>
       </c>
@@ -6734,7 +6749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>328</v>
       </c>
@@ -6742,12 +6757,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>330</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>331</v>
       </c>
@@ -6763,17 +6778,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>334</v>
       </c>
@@ -6781,12 +6796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>336</v>
       </c>
@@ -6794,22 +6809,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>340</v>
       </c>
@@ -6817,17 +6832,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>343</v>
       </c>
@@ -6835,7 +6850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>344</v>
       </c>
@@ -6843,7 +6858,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>345</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>347</v>
       </c>
@@ -6867,12 +6882,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>349</v>
       </c>
@@ -6880,7 +6895,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>350</v>
       </c>
@@ -6888,7 +6903,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>351</v>
       </c>
@@ -6896,7 +6911,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>352</v>
       </c>
@@ -6904,7 +6919,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>353</v>
       </c>
@@ -6912,7 +6927,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>354</v>
       </c>
@@ -6920,7 +6935,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>355</v>
       </c>
@@ -6928,7 +6943,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>356</v>
       </c>
@@ -6936,7 +6951,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>357</v>
       </c>
@@ -6944,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>358</v>
       </c>
@@ -6952,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -6960,7 +6975,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>360</v>
       </c>
@@ -6968,12 +6983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>362</v>
       </c>
@@ -6981,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>363</v>
       </c>
@@ -6989,12 +7004,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>365</v>
       </c>
@@ -7002,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>366</v>
       </c>
@@ -7010,22 +7025,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>370</v>
       </c>
@@ -7033,12 +7048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>372</v>
       </c>
@@ -7046,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>373</v>
       </c>
@@ -7054,12 +7069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>375</v>
       </c>
@@ -7067,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>376</v>
       </c>
@@ -7075,12 +7090,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>378</v>
       </c>
@@ -7088,12 +7103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>380</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>381</v>
       </c>
@@ -7109,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>382</v>
       </c>
@@ -7117,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>383</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>384</v>
       </c>
@@ -7133,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>385</v>
       </c>
@@ -7141,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>386</v>
       </c>
@@ -7149,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>387</v>
       </c>
@@ -7157,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>388</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>389</v>
       </c>
@@ -7173,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>390</v>
       </c>
@@ -7181,7 +7196,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>391</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>392</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>393</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>394</v>
       </c>
@@ -7213,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>395</v>
       </c>
@@ -7221,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>396</v>
       </c>
@@ -7229,7 +7244,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>397</v>
       </c>
@@ -7237,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>398</v>
       </c>
@@ -7245,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>399</v>
       </c>
@@ -7253,17 +7268,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>402</v>
       </c>
@@ -7271,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>403</v>
       </c>
@@ -7279,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>404</v>
       </c>
@@ -7287,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>405</v>
       </c>
@@ -7295,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>406</v>
       </c>
@@ -7303,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>407</v>
       </c>
@@ -7311,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>408</v>
       </c>
@@ -7319,7 +7334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -7327,17 +7342,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>412</v>
       </c>
@@ -7345,12 +7360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>414</v>
       </c>
@@ -7358,7 +7373,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>415</v>
       </c>
@@ -7366,7 +7381,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>416</v>
       </c>
@@ -7374,17 +7389,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>419</v>
       </c>
@@ -7392,7 +7407,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>420</v>
       </c>
@@ -7400,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>421</v>
       </c>
@@ -7408,12 +7423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>423</v>
       </c>
@@ -7421,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>424</v>
       </c>
@@ -7429,12 +7444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>426</v>
       </c>
@@ -7442,12 +7457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>428</v>
       </c>
@@ -7455,7 +7470,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>429</v>
       </c>
@@ -7463,12 +7478,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>431</v>
       </c>
@@ -7476,17 +7491,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>434</v>
       </c>
@@ -7494,7 +7509,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>435</v>
       </c>
@@ -7502,7 +7517,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>436</v>
       </c>
@@ -7510,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>437</v>
       </c>
@@ -7518,7 +7533,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>438</v>
       </c>
@@ -7526,7 +7541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>439</v>
       </c>
@@ -7534,7 +7549,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>440</v>
       </c>
@@ -7542,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>441</v>
       </c>
@@ -7550,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>442</v>
       </c>
@@ -7558,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>443</v>
       </c>
@@ -7566,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>444</v>
       </c>
@@ -7574,7 +7589,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>445</v>
       </c>
@@ -7582,7 +7597,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>446</v>
       </c>
@@ -7590,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>447</v>
       </c>
@@ -7605,16 +7620,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="11:11">
+    <row r="2" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>47</v>
       </c>
@@ -7627,16 +7642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -7649,16 +7664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -7671,16 +7686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -7693,16 +7708,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>453</v>
       </c>
@@ -7715,16 +7730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>470</v>
       </c>
